--- a/data/new_data/xlsx/subway_data/transfer_terminal.xlsx
+++ b/data/new_data/xlsx/subway_data/transfer_terminal.xlsx
@@ -1,33 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2350BD-6B41-4242-8EA6-D64793B93F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13276" windowWidth="20715" xWindow="-98" yWindow="-98"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>黄浦路</t>
+  </si>
+  <si>
+    <t>三阳路</t>
+  </si>
+  <si>
+    <t>大智路</t>
+  </si>
+  <si>
+    <t>循礼门</t>
+  </si>
+  <si>
+    <t>宗关</t>
+  </si>
+  <si>
+    <t>光谷火车站</t>
+  </si>
+  <si>
+    <t>中南路</t>
+  </si>
+  <si>
+    <t>洪山广场</t>
+  </si>
+  <si>
+    <t>螃蟹岬</t>
+  </si>
+  <si>
+    <t>江汉路</t>
+  </si>
+  <si>
+    <t>王家墩东</t>
+  </si>
+  <si>
+    <t>范湖</t>
+  </si>
+  <si>
+    <t>常青花园</t>
+  </si>
+  <si>
+    <t>宏图大道</t>
+  </si>
+  <si>
+    <t>后湖大道</t>
+  </si>
+  <si>
+    <t>赵家条</t>
+  </si>
+  <si>
+    <t>香港路</t>
+  </si>
+  <si>
+    <t>武汉商务区</t>
+  </si>
+  <si>
+    <t>王家湾</t>
+  </si>
+  <si>
+    <t>东风公司</t>
+  </si>
+  <si>
+    <t>岳家嘴</t>
+  </si>
+  <si>
+    <t>武昌火车站</t>
+  </si>
+  <si>
+    <t>钟家村</t>
+  </si>
+  <si>
+    <t>园博园北</t>
+  </si>
+  <si>
+    <t>徐家棚</t>
+  </si>
+  <si>
+    <t>terminalcode</t>
+  </si>
+  <si>
+    <t>terminalname</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +134,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,270 +417,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="4" sqref="C9 A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>9</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>黄浦路</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>三阳路</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>11</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>大智路</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>12</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>循礼门</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>18</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>宗关</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>37</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>光谷火车站</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>48</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>中南路</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>49</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>洪山广场</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>51</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>螃蟹岬</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>53</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>江汉路</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>56</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>王家墩东</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>57</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>范湖</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>60</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>常青花园</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>63</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>宏图大道</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>70</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>后湖大道</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>74</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>赵家条</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>76</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>香港路</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>79</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>武汉商务区</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>81</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>王家湾</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>88</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>东风公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>97</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>岳家嘴</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>102</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>武昌火车站</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>106</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>钟家村</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>142</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>园博园北</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>160</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>徐家棚</t>
-        </is>
+      <c r="B26" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>